--- a/CQ091 - Design Spec - QIP9.KS2 - Seven Day Visit 2025.xlsx
+++ b/CQ091 - Design Spec - QIP9.KS2 - Seven Day Visit 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!OPS-5700\Test Cases\testCasesSept02092025\R.25.10.1-Sprint_12\QIP 91 - New contact log purpose for 90 day visit extensions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\college_work\Coop_1\ops_work\report2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB47DB1-ED5D-46CD-9D77-3C24EADDA572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90EA936-709E-4793-B8FC-CD1949BC4257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -1160,10 +1160,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Case Owner  First Name</t>
-  </si>
-  <si>
-    <t>7 Day Private Visit Contact Log Start Date - 
-Approved Departure</t>
   </si>
   <si>
     <t>Yes</t>
@@ -2726,17 +2722,20 @@
 </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> Case Owner First Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="m/dd/yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="62" x14ac:knownFonts="1">
     <font>
@@ -3588,10 +3587,10 @@
     <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3891,8 +3890,8 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -4457,489 +4456,489 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -5187,10 +5186,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -5253,10 +5252,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -5313,43 +5312,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5436,7 +5435,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5543,18 +5542,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5568,16 +5557,12 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5600,36 +5585,23 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="55" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5637,9 +5609,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5659,7 +5628,12 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5671,16 +5645,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1777">
@@ -7817,16 +7786,16 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.41796875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="7.83984375" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.41796875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="26.68359375" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="18"/>
+    <col min="1" max="1" width="18.44140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -7840,8 +7809,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="120">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="105">
         <v>45628</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -7854,153 +7823,153 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="120">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="105">
         <v>45685</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="103">
         <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="120">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="105">
         <v>45686</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="102">
         <v>1.2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="120">
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="105">
         <v>45720</v>
       </c>
       <c r="B5" s="52">
         <v>1.21</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="120">
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="105">
         <v>45890</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="102">
         <v>1.3</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="120"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="105"/>
       <c r="B7" s="52"/>
       <c r="C7" s="26"/>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="120"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
       <c r="B8" s="52"/>
       <c r="C8" s="26"/>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="120"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="105"/>
       <c r="B9" s="52"/>
       <c r="C9" s="26"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="120"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="105"/>
       <c r="B10" s="52"/>
       <c r="C10" s="60"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="120"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="105"/>
       <c r="B11" s="52"/>
       <c r="C11" s="26"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="120"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="105"/>
       <c r="B12" s="52"/>
       <c r="C12" s="60"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="1:4" ht="128.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="120"/>
+    <row r="13" spans="1:4" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="105"/>
       <c r="B13" s="52"/>
       <c r="C13" s="26"/>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="1:4" ht="40.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="52"/>
       <c r="C14" s="26"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="1:4" ht="40.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="52"/>
       <c r="C15" s="26"/>
       <c r="D15" s="25"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="52"/>
       <c r="C16" s="26"/>
       <c r="D16" s="25"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="52"/>
       <c r="C17" s="26"/>
       <c r="D17" s="25"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="52"/>
       <c r="C18" s="26"/>
       <c r="D18" s="25"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="52"/>
       <c r="C19" s="26"/>
       <c r="D19" s="25"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="52"/>
       <c r="C20" s="26"/>
       <c r="D20" s="25"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="52"/>
       <c r="C21" s="26"/>
       <c r="D21" s="25"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="52"/>
       <c r="C22" s="26"/>
@@ -8020,69 +7989,69 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="6" max="6" width="21.26171875" customWidth="1"/>
-    <col min="7" max="7" width="10.26171875" customWidth="1"/>
-    <col min="8" max="8" width="15.26171875" customWidth="1"/>
-    <col min="9" max="9" width="13.15625" customWidth="1"/>
-    <col min="10" max="11" width="11.26171875" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="11" width="11.21875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9.68359375" customWidth="1"/>
-    <col min="14" max="14" width="10.68359375" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="G3" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="H3" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="K3" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="M3" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>370</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>371</v>
       </c>
       <c r="G4" s="35"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G5" s="35"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F6" s="35">
         <v>43466</v>
@@ -8092,29 +8061,29 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>377</v>
       </c>
       <c r="F11" s="35">
         <v>43466</v>
@@ -8129,19 +8098,19 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>379</v>
       </c>
       <c r="F16" s="35">
         <v>43466</v>
@@ -8159,17 +8128,17 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F20" s="35">
         <v>43466</v>
       </c>
@@ -8189,7 +8158,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F24" s="35">
         <v>43466</v>
       </c>
@@ -8213,53 +8182,53 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" t="s">
+      <c r="K27" t="s">
         <v>382</v>
       </c>
-      <c r="K27" t="s">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" t="s">
+      <c r="K28" t="s">
+        <v>382</v>
+      </c>
+      <c r="M28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
         <v>384</v>
       </c>
-      <c r="K28" t="s">
-        <v>383</v>
-      </c>
-      <c r="M28" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" t="s">
+      <c r="K29" t="s">
+        <v>382</v>
+      </c>
+      <c r="M29" t="s">
+        <v>382</v>
+      </c>
+      <c r="O29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
         <v>385</v>
       </c>
-      <c r="K29" t="s">
-        <v>383</v>
-      </c>
-      <c r="M29" t="s">
-        <v>383</v>
-      </c>
-      <c r="O29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>386</v>
       </c>
-      <c r="L33" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K35" s="35">
         <v>43584</v>
       </c>
@@ -8267,7 +8236,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K36" s="35">
         <v>43656</v>
       </c>
@@ -8275,21 +8244,21 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K37" s="35">
         <v>43676</v>
       </c>
       <c r="L37" s="35"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K40" s="35">
         <v>43676</v>
       </c>
@@ -8297,55 +8266,55 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K41" s="35">
         <v>43692</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="24" t="s">
-        <v>389</v>
       </c>
       <c r="L44" s="39"/>
       <c r="M44" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="N44" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="N44" s="47" t="s">
+      <c r="O44" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="O44" s="47" t="s">
+    </row>
+    <row r="45" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
+      <c r="H45" t="s">
         <v>393</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="J45" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="K45" s="39" t="s">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
+      <c r="G46" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="H46" s="41" t="s">
         <v>397</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>398</v>
       </c>
       <c r="I46" s="41"/>
       <c r="J46" s="43">
@@ -8355,24 +8324,24 @@
         <v>43469</v>
       </c>
       <c r="M46" t="s">
+        <v>319</v>
+      </c>
+      <c r="N46" t="s">
         <v>320</v>
       </c>
-      <c r="N46" t="s">
-        <v>321</v>
-      </c>
       <c r="O46" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>398</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="H47" s="41" t="s">
         <v>399</v>
-      </c>
-      <c r="G47" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>400</v>
       </c>
       <c r="I47" s="41"/>
       <c r="J47" s="43">
@@ -8382,24 +8351,24 @@
         <v>43475</v>
       </c>
       <c r="M47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N47" t="s">
+        <v>319</v>
+      </c>
+      <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="O47" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="H48" s="44" t="s">
         <v>401</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="H48" s="44" t="s">
-        <v>402</v>
       </c>
       <c r="I48" s="44"/>
       <c r="J48" s="45">
@@ -8409,24 +8378,24 @@
         <v>43497</v>
       </c>
       <c r="M48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="G49" s="41" t="s">
-        <v>404</v>
-      </c>
       <c r="H49" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="43">
@@ -8436,24 +8405,24 @@
         <v>43506</v>
       </c>
       <c r="M49" t="s">
+        <v>319</v>
+      </c>
+      <c r="N49" t="s">
+        <v>319</v>
+      </c>
+      <c r="O49" t="s">
         <v>320</v>
       </c>
-      <c r="N49" t="s">
-        <v>320</v>
-      </c>
-      <c r="O49" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="H50" s="44" t="s">
         <v>405</v>
-      </c>
-      <c r="G50" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="H50" s="44" t="s">
-        <v>406</v>
       </c>
       <c r="I50" s="44"/>
       <c r="J50" s="45">
@@ -8463,24 +8432,24 @@
         <v>43516</v>
       </c>
       <c r="M50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G51" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="H51" s="41" t="s">
         <v>397</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>398</v>
       </c>
       <c r="I51" s="41"/>
       <c r="J51" s="43">
@@ -8490,21 +8459,21 @@
         <v>43521</v>
       </c>
       <c r="M51" t="s">
+        <v>319</v>
+      </c>
+      <c r="N51" t="s">
+        <v>319</v>
+      </c>
+      <c r="O51" t="s">
         <v>320</v>
       </c>
-      <c r="N51" t="s">
-        <v>320</v>
-      </c>
-      <c r="O51" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G52" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I52" s="44"/>
       <c r="J52" s="45">
@@ -8514,24 +8483,24 @@
         <v>43527</v>
       </c>
       <c r="M52" t="s">
+        <v>319</v>
+      </c>
+      <c r="N52" t="s">
         <v>320</v>
       </c>
-      <c r="N52" t="s">
-        <v>321</v>
-      </c>
       <c r="O52" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I53" s="44"/>
       <c r="J53" s="45">
@@ -8539,94 +8508,94 @@
       </c>
       <c r="K53" s="45"/>
       <c r="M53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N53" t="s">
+        <v>319</v>
+      </c>
+      <c r="O53" t="s">
         <v>320</v>
       </c>
-      <c r="O53" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>410</v>
       </c>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="24" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="42" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="24" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="48" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -8639,18 +8608,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.41796875" customWidth="1"/>
-    <col min="2" max="2" width="45.68359375" customWidth="1"/>
-    <col min="3" max="3" width="71.41796875" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -8659,29 +8628,29 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="119">
+      <c r="C3" s="104">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="101.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="101.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -8689,10 +8658,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -8701,7 +8670,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -8712,29 +8681,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="49.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -8743,18 +8712,18 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -8765,7 +8734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -8776,18 +8745,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -8796,16 +8765,16 @@
       </c>
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:3" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="82"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -8816,18 +8785,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="110.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -8838,7 +8807,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
@@ -8849,7 +8818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -8860,39 +8829,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="82"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="81"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="81"/>
+      <c r="C24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8911,34 +8880,34 @@
       <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.15625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="48.41796875" style="61" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" style="61" customWidth="1"/>
     <col min="3" max="3" width="107" style="15" customWidth="1"/>
     <col min="4" max="4" width="32" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14.41796875" style="15" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.41796875" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83984375" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83984375" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.26171875" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.41796875" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.41796875" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.41796875" style="15" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.41796875" style="15" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="20.41796875" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="25.68359375" style="15" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="67.68359375" style="15" customWidth="1"/>
-    <col min="18" max="18" width="8.26171875" style="15" customWidth="1"/>
-    <col min="19" max="19" width="14.83984375" style="15" customWidth="1"/>
-    <col min="20" max="20" width="15.15625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="15" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="67.6640625" style="15" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" style="15" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" style="15" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" style="15" customWidth="1"/>
     <col min="21" max="21" width="13" style="15" customWidth="1"/>
-    <col min="22" max="22" width="22.41796875" style="15" customWidth="1"/>
-    <col min="23" max="16384" width="9.15625" style="15"/>
+    <col min="22" max="22" width="22.44140625" style="15" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
@@ -9009,7 +8978,7 @@
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -9080,7 +9049,7 @@
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
     </row>
-    <row r="3" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>104</v>
       </c>
@@ -9127,7 +9096,7 @@
       <c r="U3" s="28"/>
       <c r="V3" s="28"/>
     </row>
-    <row r="4" spans="1:25" s="23" customFormat="1" ht="153" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" s="23" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>111</v>
       </c>
@@ -9177,7 +9146,7 @@
       <c r="U4" s="28"/>
       <c r="V4" s="28"/>
     </row>
-    <row r="5" spans="1:25" s="23" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" s="23" customFormat="1" ht="56.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>116</v>
       </c>
@@ -9226,7 +9195,7 @@
       <c r="U5" s="28"/>
       <c r="V5" s="28"/>
     </row>
-    <row r="6" spans="1:25" s="23" customFormat="1" ht="195" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" s="23" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>121</v>
       </c>
@@ -9266,7 +9235,7 @@
         <v>109</v>
       </c>
       <c r="Q6" s="62" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="28" t="s">
@@ -9276,7 +9245,7 @@
       <c r="U6" s="28"/>
       <c r="V6" s="28"/>
     </row>
-    <row r="7" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>124</v>
       </c>
@@ -9329,7 +9298,7 @@
       <c r="X7" s="63"/>
       <c r="Y7" s="63"/>
     </row>
-    <row r="8" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>128</v>
       </c>
@@ -9382,7 +9351,7 @@
       <c r="X8" s="63"/>
       <c r="Y8" s="63"/>
     </row>
-    <row r="9" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>131</v>
       </c>
@@ -9435,7 +9404,7 @@
       <c r="X9" s="63"/>
       <c r="Y9" s="63"/>
     </row>
-    <row r="10" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>134</v>
       </c>
@@ -9488,7 +9457,7 @@
       <c r="X10" s="63"/>
       <c r="Y10" s="63"/>
     </row>
-    <row r="11" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>137</v>
       </c>
@@ -9541,7 +9510,7 @@
       <c r="X11" s="63"/>
       <c r="Y11" s="63"/>
     </row>
-    <row r="12" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>140</v>
       </c>
@@ -9594,7 +9563,7 @@
       <c r="X12" s="63"/>
       <c r="Y12" s="63"/>
     </row>
-    <row r="13" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>143</v>
       </c>
@@ -9647,7 +9616,7 @@
       <c r="X13" s="63"/>
       <c r="Y13" s="63"/>
     </row>
-    <row r="14" spans="1:25" s="23" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" s="23" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
         <v>146</v>
       </c>
@@ -9692,7 +9661,7 @@
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
     </row>
-    <row r="15" spans="1:25" s="23" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" s="23" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>149</v>
       </c>
@@ -9737,7 +9706,7 @@
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
     </row>
-    <row r="16" spans="1:25" s="23" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" s="23" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>152</v>
       </c>
@@ -9785,7 +9754,7 @@
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
     </row>
-    <row r="17" spans="1:22" s="23" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" s="23" customFormat="1" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>156</v>
       </c>
@@ -9833,7 +9802,7 @@
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
     </row>
-    <row r="18" spans="1:22" s="23" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" s="23" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
         <v>159</v>
       </c>
@@ -9883,7 +9852,7 @@
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
     </row>
-    <row r="19" spans="1:22" s="23" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" s="23" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>163</v>
       </c>
@@ -9925,7 +9894,7 @@
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
     </row>
-    <row r="20" spans="1:22" s="23" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" s="23" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
         <v>165</v>
       </c>
@@ -9969,7 +9938,7 @@
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
     </row>
-    <row r="21" spans="1:22" s="23" customFormat="1" ht="66.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" s="23" customFormat="1" ht="66.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>168</v>
       </c>
@@ -10014,7 +9983,7 @@
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
     </row>
-    <row r="22" spans="1:22" s="23" customFormat="1" ht="55.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" s="23" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>171</v>
       </c>
@@ -10057,7 +10026,7 @@
       <c r="U22" s="28"/>
       <c r="V22" s="28"/>
     </row>
-    <row r="23" spans="1:22" s="23" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" s="23" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>173</v>
       </c>
@@ -10065,7 +10034,7 @@
         <v>174</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D23" s="79" t="s">
         <v>175</v>
@@ -10100,8 +10069,8 @@
       <c r="P23" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="Q23" s="116" t="s">
-        <v>516</v>
+      <c r="Q23" s="27" t="s">
+        <v>515</v>
       </c>
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
@@ -10109,7 +10078,7 @@
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
     </row>
-    <row r="24" spans="1:22" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>176</v>
       </c>
@@ -10117,7 +10086,7 @@
         <v>177</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D24" s="79" t="s">
         <v>178</v>
@@ -10152,8 +10121,8 @@
       <c r="P24" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="Q24" s="116" t="s">
-        <v>517</v>
+      <c r="Q24" s="27" t="s">
+        <v>516</v>
       </c>
       <c r="R24" s="28"/>
       <c r="S24" s="28"/>
@@ -10161,7 +10130,7 @@
       <c r="U24" s="28"/>
       <c r="V24" s="28"/>
     </row>
-    <row r="25" spans="1:22" s="23" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" s="23" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>179</v>
       </c>
@@ -10206,7 +10175,7 @@
       <c r="U25" s="28"/>
       <c r="V25" s="28"/>
     </row>
-    <row r="26" spans="1:22" s="23" customFormat="1" ht="39.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" s="23" customFormat="1" ht="39.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>182</v>
       </c>
@@ -10233,7 +10202,7 @@
       <c r="U26" s="28"/>
       <c r="V26" s="28"/>
     </row>
-    <row r="27" spans="1:22" s="23" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" s="23" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>185</v>
       </c>
@@ -10259,7 +10228,7 @@
       <c r="U27" s="28"/>
       <c r="V27" s="28"/>
     </row>
-    <row r="28" spans="1:22" s="23" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" s="23" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>188</v>
       </c>
@@ -10301,7 +10270,7 @@
       <c r="U28" s="28"/>
       <c r="V28" s="28"/>
     </row>
-    <row r="29" spans="1:22" s="23" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" s="23" customFormat="1" ht="38.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>190</v>
       </c>
@@ -10346,7 +10315,7 @@
       <c r="U29" s="28"/>
       <c r="V29" s="28"/>
     </row>
-    <row r="30" spans="1:22" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>193</v>
       </c>
@@ -10388,7 +10357,7 @@
       <c r="U30" s="28"/>
       <c r="V30" s="28"/>
     </row>
-    <row r="31" spans="1:22" s="23" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" s="23" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>195</v>
       </c>
@@ -10430,7 +10399,7 @@
       <c r="U31" s="28"/>
       <c r="V31" s="28"/>
     </row>
-    <row r="32" spans="1:22" s="23" customFormat="1" ht="37.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" s="23" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>197</v>
       </c>
@@ -10440,7 +10409,7 @@
       <c r="C32" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="81" t="s">
         <v>199</v>
       </c>
       <c r="G32" s="28" t="s">
@@ -10477,7 +10446,7 @@
       <c r="U32" s="28"/>
       <c r="V32" s="28"/>
     </row>
-    <row r="33" spans="1:22" s="23" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" s="23" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>201</v>
       </c>
@@ -10487,7 +10456,7 @@
       <c r="C33" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="81" t="s">
         <v>199</v>
       </c>
       <c r="G33" s="28" t="s">
@@ -10524,13 +10493,13 @@
       <c r="U33" s="28"/>
       <c r="V33" s="28"/>
     </row>
-    <row r="34" spans="1:22" s="23" customFormat="1" ht="190.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" s="23" customFormat="1" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>204</v>
       </c>
       <c r="B34" s="61"/>
       <c r="C34" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>108</v>
@@ -10566,13 +10535,13 @@
       <c r="U34" s="28"/>
       <c r="V34" s="28"/>
     </row>
-    <row r="35" spans="1:22" s="23" customFormat="1" ht="188.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" s="23" customFormat="1" ht="188.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>205</v>
       </c>
       <c r="B35" s="61"/>
       <c r="C35" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>108</v>
@@ -10608,13 +10577,13 @@
       <c r="U35" s="28"/>
       <c r="V35" s="28"/>
     </row>
-    <row r="36" spans="1:22" s="23" customFormat="1" ht="188.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" s="23" customFormat="1" ht="188.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="s">
         <v>206</v>
       </c>
       <c r="B36" s="61"/>
       <c r="C36" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>108</v>
@@ -10650,7 +10619,7 @@
       <c r="U36" s="28"/>
       <c r="V36" s="28"/>
     </row>
-    <row r="37" spans="1:22" s="23" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" s="23" customFormat="1" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
         <v>207</v>
       </c>
@@ -10692,7 +10661,7 @@
       <c r="U37" s="28"/>
       <c r="V37" s="28"/>
     </row>
-    <row r="38" spans="1:22" s="23" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" s="23" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
         <v>209</v>
       </c>
@@ -10739,7 +10708,7 @@
       <c r="U38" s="28"/>
       <c r="V38" s="28"/>
     </row>
-    <row r="39" spans="1:22" s="23" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" s="23" customFormat="1" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
         <v>213</v>
       </c>
@@ -10786,12 +10755,12 @@
       <c r="U39" s="28"/>
       <c r="V39" s="28"/>
     </row>
-    <row r="40" spans="1:22" s="79" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" s="79" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>216</v>
@@ -10830,7 +10799,7 @@
       <c r="U40" s="80"/>
       <c r="V40" s="80"/>
     </row>
-    <row r="41" spans="1:22" s="23" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" s="23" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="46" t="s">
         <v>217</v>
       </c>
@@ -10875,7 +10844,7 @@
       <c r="U41" s="28"/>
       <c r="V41" s="28"/>
     </row>
-    <row r="42" spans="1:22" s="23" customFormat="1" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" s="23" customFormat="1" ht="95.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>220</v>
       </c>
@@ -10922,18 +10891,18 @@
       <c r="U42" s="28"/>
       <c r="V42" s="28"/>
     </row>
-    <row r="43" spans="1:22" s="79" customFormat="1" ht="112.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" s="79" customFormat="1" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G43" s="80" t="s">
         <v>108</v>
@@ -10969,7 +10938,7 @@
       <c r="U43" s="80"/>
       <c r="V43" s="80"/>
     </row>
-    <row r="44" spans="1:22" s="23" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" s="23" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="46" t="s">
         <v>223</v>
       </c>
@@ -11016,7 +10985,7 @@
       <c r="U44" s="28"/>
       <c r="V44" s="28"/>
     </row>
-    <row r="45" spans="1:22" s="23" customFormat="1" ht="215.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" s="23" customFormat="1" ht="215.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>227</v>
       </c>
@@ -11024,7 +10993,7 @@
         <v>228</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D45" s="79"/>
       <c r="E45" s="79"/>
@@ -11063,47 +11032,47 @@
       <c r="U45" s="28"/>
       <c r="V45" s="28"/>
     </row>
-    <row r="46" spans="1:22" s="23" customFormat="1" ht="112.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" s="23" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B46" s="54"/>
       <c r="C46" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
       <c r="R46" s="28"/>
       <c r="S46" s="28"/>
       <c r="T46" s="28"/>
       <c r="U46" s="28"/>
       <c r="V46" s="28"/>
     </row>
-    <row r="47" spans="1:22" s="23" customFormat="1" ht="354.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" s="23" customFormat="1" ht="354.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>494</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>426</v>
-      </c>
-      <c r="B47" s="61" t="s">
-        <v>495</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>427</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>108</v>
@@ -11139,13 +11108,13 @@
       <c r="U47" s="28"/>
       <c r="V47" s="28"/>
     </row>
-    <row r="48" spans="1:22" s="23" customFormat="1" ht="130.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" s="23" customFormat="1" ht="130.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="46" t="s">
         <v>229</v>
       </c>
       <c r="B48" s="61"/>
       <c r="C48" s="29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>218</v>
@@ -11184,17 +11153,16 @@
       <c r="U48" s="28"/>
       <c r="V48" s="28"/>
     </row>
-    <row r="49" spans="1:22" s="79" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" s="79" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="C49" s="113" t="s">
-        <v>462</v>
-      </c>
-      <c r="D49" s="111"/>
+        <v>495</v>
+      </c>
+      <c r="C49" s="100" t="s">
+        <v>461</v>
+      </c>
       <c r="G49" s="80" t="s">
         <v>108</v>
       </c>
@@ -11229,61 +11197,61 @@
       <c r="U49" s="80"/>
       <c r="V49" s="80"/>
     </row>
-    <row r="50" spans="1:22" s="37" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" s="37" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="106" t="s">
         <v>530</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="121" t="s">
+      <c r="D50" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="D50" s="122" t="s">
-        <v>532</v>
-      </c>
-      <c r="G50" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="89" t="s">
+      <c r="G50" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="I50" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="J50" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="N50" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="O50" s="89" t="s">
+      <c r="I50" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="J50" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="N50" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="O50" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="P50" s="89" t="s">
+      <c r="P50" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="R50" s="89"/>
-      <c r="S50" s="89"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="89"/>
-      <c r="V50" s="89"/>
-    </row>
-    <row r="51" spans="1:22" s="79" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="R50" s="85"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="85"/>
+      <c r="V50" s="85"/>
+    </row>
+    <row r="51" spans="1:22" s="79" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="61"/>
       <c r="C51" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G51" s="80"/>
       <c r="H51" s="80"/>
@@ -11301,18 +11269,18 @@
       <c r="U51" s="80"/>
       <c r="V51" s="80"/>
     </row>
-    <row r="52" spans="1:22" s="79" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" s="79" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>497</v>
-      </c>
-      <c r="C52" s="114" t="s">
-        <v>518</v>
+        <v>496</v>
+      </c>
+      <c r="C52" s="100" t="s">
+        <v>517</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G52" s="80" t="s">
         <v>108</v>
@@ -11348,15 +11316,15 @@
       <c r="U52" s="80"/>
       <c r="V52" s="80"/>
     </row>
-    <row r="53" spans="1:22" s="79" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" s="79" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G53" s="80" t="s">
         <v>108</v>
@@ -11393,15 +11361,15 @@
       <c r="U53" s="80"/>
       <c r="V53" s="80"/>
     </row>
-    <row r="54" spans="1:22" s="79" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" s="79" customFormat="1" ht="106.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D54" s="79" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G54" s="80" t="s">
         <v>108</v>
@@ -11438,18 +11406,18 @@
       <c r="U54" s="80"/>
       <c r="V54" s="80"/>
     </row>
-    <row r="55" spans="1:22" s="79" customFormat="1" ht="231" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" s="79" customFormat="1" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>500</v>
-      </c>
-      <c r="C55" s="115" t="s">
-        <v>512</v>
+        <v>499</v>
+      </c>
+      <c r="C55" s="101" t="s">
+        <v>511</v>
       </c>
       <c r="D55" s="79" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G55" s="80"/>
       <c r="H55" s="80"/>
@@ -11468,7 +11436,7 @@
       <c r="U55" s="80"/>
       <c r="V55" s="80"/>
     </row>
-    <row r="56" spans="1:22" s="23" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" s="23" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
         <v>230</v>
       </c>
@@ -11515,13 +11483,13 @@
       <c r="U56" s="28"/>
       <c r="V56" s="28"/>
     </row>
-    <row r="57" spans="1:22" s="79" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" s="79" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="B57" s="61"/>
+      <c r="C57" s="100" t="s">
         <v>469</v>
-      </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="113" t="s">
-        <v>470</v>
       </c>
       <c r="G57" s="80"/>
       <c r="H57" s="80"/>
@@ -11539,18 +11507,18 @@
       <c r="U57" s="80"/>
       <c r="V57" s="80"/>
     </row>
-    <row r="58" spans="1:22" s="79" customFormat="1" ht="162.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" s="79" customFormat="1" ht="162.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C58" s="115" t="s">
-        <v>519</v>
+        <v>500</v>
+      </c>
+      <c r="C58" s="101" t="s">
+        <v>518</v>
       </c>
       <c r="D58" s="79" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G58" s="80"/>
       <c r="H58" s="80"/>
@@ -11568,15 +11536,15 @@
       <c r="U58" s="80"/>
       <c r="V58" s="80"/>
     </row>
-    <row r="59" spans="1:22" s="79" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" s="79" customFormat="1" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="61" t="s">
         <v>234</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G59" s="80" t="s">
         <v>108</v>
@@ -11612,18 +11580,18 @@
       <c r="U59" s="80"/>
       <c r="V59" s="80"/>
     </row>
-    <row r="60" spans="1:22" s="79" customFormat="1" ht="347.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" s="79" customFormat="1" ht="347.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="61" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G60" s="80" t="s">
         <v>108</v>
@@ -11659,15 +11627,15 @@
       <c r="U60" s="80"/>
       <c r="V60" s="80"/>
     </row>
-    <row r="61" spans="1:22" s="79" customFormat="1" ht="397.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" s="79" customFormat="1" ht="397.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="61" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D61" s="79" t="s">
         <v>235</v>
@@ -11706,7 +11674,7 @@
       <c r="U61" s="80"/>
       <c r="V61" s="80"/>
     </row>
-    <row r="62" spans="1:22" s="23" customFormat="1" ht="124.35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" s="23" customFormat="1" ht="124.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>236</v>
       </c>
@@ -11751,18 +11719,18 @@
       <c r="U62" s="28"/>
       <c r="V62" s="28"/>
     </row>
-    <row r="63" spans="1:22" s="79" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" s="79" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="C63" s="113" t="s">
-        <v>525</v>
+        <v>502</v>
+      </c>
+      <c r="C63" s="100" t="s">
+        <v>524</v>
       </c>
       <c r="D63" s="79" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G63" s="80" t="s">
         <v>108</v>
@@ -11798,63 +11766,63 @@
       <c r="U63" s="80"/>
       <c r="V63" s="80"/>
     </row>
-    <row r="64" spans="1:22" s="37" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" s="37" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="54" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B64" s="54"/>
-      <c r="C64" s="121" t="s">
-        <v>533</v>
-      </c>
-      <c r="D64" s="122" t="s">
+      <c r="C64" s="106" t="s">
         <v>532</v>
       </c>
-      <c r="G64" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="H64" s="89" t="s">
+      <c r="D64" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="G64" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="I64" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="J64" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K64" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="N64" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="O64" s="89" t="s">
+      <c r="I64" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="J64" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="K64" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="N64" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="O64" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="P64" s="89" t="s">
+      <c r="P64" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="R64" s="89"/>
-      <c r="S64" s="89"/>
-      <c r="T64" s="89"/>
-      <c r="U64" s="89"/>
-      <c r="V64" s="89"/>
-    </row>
-    <row r="65" spans="1:22" s="79" customFormat="1" ht="376.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="R64" s="85"/>
+      <c r="S64" s="85"/>
+      <c r="T64" s="85"/>
+      <c r="U64" s="85"/>
+      <c r="V64" s="85"/>
+    </row>
+    <row r="65" spans="1:22" s="79" customFormat="1" ht="376.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D65" s="79" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G65" s="80" t="s">
         <v>108</v>
@@ -11890,7 +11858,7 @@
       <c r="U65" s="80"/>
       <c r="V65" s="80"/>
     </row>
-    <row r="66" spans="1:22" s="23" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" s="23" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="46" t="s">
         <v>238</v>
       </c>
@@ -11937,7 +11905,7 @@
       <c r="U66" s="28"/>
       <c r="V66" s="28"/>
     </row>
-    <row r="67" spans="1:22" s="79" customFormat="1" ht="271.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" s="79" customFormat="1" ht="271.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="61" t="s">
         <v>242</v>
       </c>
@@ -11945,10 +11913,10 @@
         <v>243</v>
       </c>
       <c r="C67" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="D67" s="79" t="s">
         <v>482</v>
-      </c>
-      <c r="D67" s="79" t="s">
-        <v>483</v>
       </c>
       <c r="G67" s="80" t="s">
         <v>108</v>
@@ -11984,7 +11952,7 @@
       <c r="U67" s="80"/>
       <c r="V67" s="80"/>
     </row>
-    <row r="68" spans="1:22" s="23" customFormat="1" ht="125.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" s="23" customFormat="1" ht="125.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="46" t="s">
         <v>244</v>
       </c>
@@ -12031,7 +11999,7 @@
       <c r="U68" s="28"/>
       <c r="V68" s="28"/>
     </row>
-    <row r="69" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="46"/>
       <c r="B69" s="61"/>
       <c r="G69" s="28"/>
@@ -12051,7 +12019,7 @@
       <c r="U69" s="28"/>
       <c r="V69" s="28"/>
     </row>
-    <row r="70" spans="1:22" s="23" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" s="23" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="46" t="s">
         <v>247</v>
       </c>
@@ -12095,7 +12063,7 @@
       <c r="U70" s="28"/>
       <c r="V70" s="28"/>
     </row>
-    <row r="71" spans="1:22" s="23" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" s="23" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="46" t="s">
         <v>250</v>
       </c>
@@ -12139,7 +12107,7 @@
       <c r="U71" s="28"/>
       <c r="V71" s="28"/>
     </row>
-    <row r="72" spans="1:22" s="23" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" s="23" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="46" t="s">
         <v>253</v>
       </c>
@@ -12183,7 +12151,7 @@
       <c r="U72" s="28"/>
       <c r="V72" s="28"/>
     </row>
-    <row r="73" spans="1:22" s="23" customFormat="1" ht="39.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" s="23" customFormat="1" ht="39.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="46" t="s">
         <v>256</v>
       </c>
@@ -12227,7 +12195,7 @@
       <c r="U73" s="28"/>
       <c r="V73" s="28"/>
     </row>
-    <row r="74" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="46"/>
       <c r="B74" s="61"/>
       <c r="C74" s="46"/>
@@ -12247,7 +12215,7 @@
       <c r="U74" s="28"/>
       <c r="V74" s="28"/>
     </row>
-    <row r="75" spans="1:22" s="23" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" s="23" customFormat="1" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="46" t="s">
         <v>259</v>
       </c>
@@ -12291,7 +12259,7 @@
       <c r="U75" s="28"/>
       <c r="V75" s="28"/>
     </row>
-    <row r="76" spans="1:22" s="23" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" s="23" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="46" t="s">
         <v>262</v>
       </c>
@@ -12335,7 +12303,7 @@
       <c r="U76" s="28"/>
       <c r="V76" s="28"/>
     </row>
-    <row r="77" spans="1:22" s="23" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" s="23" customFormat="1" ht="56.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="46" t="s">
         <v>265</v>
       </c>
@@ -12379,7 +12347,7 @@
       <c r="U77" s="28"/>
       <c r="V77" s="28"/>
     </row>
-    <row r="78" spans="1:22" s="23" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" s="23" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="46" t="s">
         <v>256</v>
       </c>
@@ -12423,7 +12391,7 @@
       <c r="U78" s="28"/>
       <c r="V78" s="28"/>
     </row>
-    <row r="79" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="46"/>
       <c r="B79" s="61"/>
       <c r="C79" s="46"/>
@@ -12443,15 +12411,15 @@
       <c r="U79" s="28"/>
       <c r="V79" s="28"/>
     </row>
-    <row r="80" spans="1:22" s="79" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" s="79" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B80" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C80" s="61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G80" s="80" t="s">
         <v>108</v>
@@ -12487,7 +12455,7 @@
       <c r="U80" s="80"/>
       <c r="V80" s="80"/>
     </row>
-    <row r="81" spans="1:22" s="79" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" s="79" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="61" t="s">
         <v>269</v>
       </c>
@@ -12495,7 +12463,7 @@
         <v>270</v>
       </c>
       <c r="C81" s="61" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G81" s="80" t="s">
         <v>108</v>
@@ -12531,7 +12499,7 @@
       <c r="U81" s="80"/>
       <c r="V81" s="80"/>
     </row>
-    <row r="82" spans="1:22" s="79" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:22" s="79" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="61" t="s">
         <v>271</v>
       </c>
@@ -12539,7 +12507,7 @@
         <v>272</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G82" s="80" t="s">
         <v>108</v>
@@ -12575,7 +12543,7 @@
       <c r="U82" s="80"/>
       <c r="V82" s="80"/>
     </row>
-    <row r="83" spans="1:22" s="79" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:22" s="79" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="61" t="s">
         <v>256</v>
       </c>
@@ -12583,7 +12551,7 @@
         <v>257</v>
       </c>
       <c r="C83" s="61" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G83" s="80" t="s">
         <v>108</v>
@@ -12619,10 +12587,9 @@
       <c r="U83" s="80"/>
       <c r="V83" s="80"/>
     </row>
-    <row r="84" spans="1:22" s="23" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:22" s="23" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="46"/>
       <c r="B84" s="61"/>
-      <c r="C84" s="85"/>
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
@@ -12639,12 +12606,12 @@
       <c r="U84" s="28"/>
       <c r="V84" s="28"/>
     </row>
-    <row r="85" spans="1:22" s="23" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:22" s="23" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A85" s="61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B85" s="61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C85" s="27"/>
       <c r="D85" s="79"/>
@@ -12666,7 +12633,7 @@
       <c r="U85" s="28"/>
       <c r="V85" s="28"/>
     </row>
-    <row r="86" spans="1:22" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:22" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="76" t="s">
         <v>247</v>
       </c>
@@ -12674,7 +12641,7 @@
         <v>248</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D86" s="79"/>
       <c r="E86" s="79"/>
@@ -12695,7 +12662,7 @@
       <c r="U86" s="28"/>
       <c r="V86" s="28"/>
     </row>
-    <row r="87" spans="1:22" s="23" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:22" s="23" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="76" t="s">
         <v>259</v>
       </c>
@@ -12703,7 +12670,7 @@
         <v>260</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D87" s="79"/>
       <c r="E87" s="79"/>
@@ -12724,15 +12691,15 @@
       <c r="U87" s="28"/>
       <c r="V87" s="28"/>
     </row>
-    <row r="88" spans="1:22" s="23" customFormat="1" ht="53.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:22" s="23" customFormat="1" ht="53.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D88" s="79"/>
       <c r="E88" s="79"/>
@@ -12753,7 +12720,7 @@
       <c r="U88" s="28"/>
       <c r="V88" s="28"/>
     </row>
-    <row r="89" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="61"/>
       <c r="B89" s="61"/>
       <c r="C89" s="79"/>
@@ -12774,7 +12741,7 @@
       <c r="U89" s="28"/>
       <c r="V89" s="28"/>
     </row>
-    <row r="90" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="61" t="s">
         <v>273</v>
       </c>
@@ -12802,7 +12769,7 @@
       <c r="U90" s="28"/>
       <c r="V90" s="28"/>
     </row>
-    <row r="91" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A91" s="61" t="s">
         <v>247</v>
       </c>
@@ -12841,7 +12808,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:22" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="61" t="s">
         <v>259</v>
       </c>
@@ -12880,15 +12847,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="23" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:22" s="23" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C93" s="61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G93" s="28" t="s">
         <v>108</v>
@@ -12919,7 +12886,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="23" customFormat="1" ht="66.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:22" s="23" customFormat="1" ht="66.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="46" t="s">
         <v>278</v>
       </c>
@@ -12958,7 +12925,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>280</v>
       </c>
@@ -12997,7 +12964,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A96" s="46" t="s">
         <v>283</v>
       </c>
@@ -13037,15 +13004,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A97" s="61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B97" s="61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C97" s="61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D97" s="28"/>
       <c r="G97" s="28" t="s">
@@ -13077,7 +13044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="61" t="s">
         <v>286</v>
       </c>
@@ -13104,15 +13071,15 @@
       <c r="U98" s="28"/>
       <c r="V98" s="28"/>
     </row>
-    <row r="99" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:22" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A99" s="61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B99" s="61" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C99" s="61" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>108</v>
@@ -13143,12 +13110,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:22" s="23" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:22" s="23" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="61" t="s">
         <v>289</v>
       </c>
       <c r="B100" s="61" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C100" s="28"/>
       <c r="D100" s="23" t="s">
@@ -13165,7 +13132,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="1:22" s="23" customFormat="1" ht="73.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:22" s="23" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="61" t="s">
         <v>290</v>
       </c>
@@ -13207,13 +13174,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="46"/>
       <c r="B102" s="61"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
     </row>
-    <row r="103" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="46" t="s">
         <v>292</v>
       </c>
@@ -13252,7 +13219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="46" t="s">
         <v>1</v>
       </c>
@@ -13286,7 +13253,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="46" t="s">
         <v>295</v>
       </c>
@@ -13310,7 +13277,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="1:22" s="23" customFormat="1" ht="14.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:22" s="23" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="66" t="s">
         <v>298</v>
       </c>
@@ -13333,7 +13300,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="46" t="s">
         <v>300</v>
       </c>
@@ -13355,27 +13322,27 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="46"/>
       <c r="B108" s="61"/>
     </row>
-    <row r="109" spans="1:22" s="23" customFormat="1" ht="185.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:22" s="23" customFormat="1" ht="185.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="54" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B109" s="61"/>
     </row>
-    <row r="110" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="46"/>
       <c r="B110" s="61"/>
     </row>
-    <row r="111" spans="1:22" s="23" customFormat="1" ht="14.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="67" t="s">
         <v>303</v>
       </c>
       <c r="B111" s="61"/>
     </row>
-    <row r="112" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="46" t="s">
         <v>23</v>
       </c>
@@ -13383,7 +13350,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="46" t="s">
         <v>305</v>
       </c>
@@ -13391,7 +13358,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="46" t="s">
         <v>307</v>
       </c>
@@ -13399,7 +13366,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="46" t="s">
         <v>309</v>
       </c>
@@ -13407,215 +13374,215 @@
         <v>310</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="46"/>
       <c r="B116" s="61"/>
     </row>
-    <row r="117" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="46"/>
       <c r="B117" s="61"/>
     </row>
-    <row r="118" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="46"/>
       <c r="B118" s="61"/>
     </row>
-    <row r="119" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="46"/>
       <c r="B119" s="61"/>
     </row>
-    <row r="120" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="46"/>
       <c r="B120" s="61"/>
     </row>
-    <row r="121" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="46"/>
       <c r="B121" s="61"/>
     </row>
-    <row r="122" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="46"/>
       <c r="B122" s="61"/>
     </row>
-    <row r="123" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="46"/>
       <c r="B123" s="61"/>
     </row>
-    <row r="124" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="46"/>
       <c r="B124" s="61"/>
     </row>
-    <row r="125" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="46"/>
       <c r="B125" s="61"/>
     </row>
-    <row r="126" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="46"/>
       <c r="B126" s="61"/>
     </row>
-    <row r="127" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="46"/>
       <c r="B127" s="61"/>
     </row>
-    <row r="128" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="46"/>
       <c r="B128" s="61"/>
     </row>
-    <row r="129" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="46"/>
       <c r="B129" s="61"/>
     </row>
-    <row r="130" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="46"/>
       <c r="B130" s="61"/>
     </row>
-    <row r="131" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="46"/>
       <c r="B131" s="61"/>
     </row>
-    <row r="132" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="46"/>
       <c r="B132" s="61"/>
     </row>
-    <row r="133" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="46"/>
       <c r="B133" s="61"/>
     </row>
-    <row r="134" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="46"/>
       <c r="B134" s="61"/>
     </row>
-    <row r="135" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="46"/>
       <c r="B135" s="61"/>
     </row>
-    <row r="136" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="46"/>
       <c r="B136" s="61"/>
     </row>
-    <row r="137" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="46"/>
       <c r="B137" s="61"/>
     </row>
-    <row r="138" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="46"/>
       <c r="B138" s="61"/>
     </row>
-    <row r="139" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="46"/>
       <c r="B139" s="61"/>
     </row>
-    <row r="140" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="46"/>
       <c r="B140" s="61"/>
     </row>
-    <row r="141" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="46"/>
       <c r="B141" s="61"/>
     </row>
-    <row r="142" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="46"/>
       <c r="B142" s="61"/>
     </row>
-    <row r="143" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="46"/>
       <c r="B143" s="61"/>
     </row>
-    <row r="144" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="46"/>
       <c r="B144" s="61"/>
     </row>
-    <row r="145" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="46"/>
       <c r="B145" s="61"/>
     </row>
-    <row r="146" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="46"/>
       <c r="B146" s="61"/>
     </row>
-    <row r="147" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="46"/>
       <c r="B147" s="61"/>
     </row>
-    <row r="148" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="46"/>
       <c r="B148" s="61"/>
     </row>
-    <row r="149" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="46"/>
       <c r="B149" s="61"/>
     </row>
-    <row r="150" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="46"/>
       <c r="B150" s="61"/>
     </row>
-    <row r="151" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="46"/>
       <c r="B151" s="61"/>
     </row>
-    <row r="152" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="46"/>
       <c r="B152" s="61"/>
     </row>
-    <row r="153" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="46"/>
       <c r="B153" s="61"/>
     </row>
-    <row r="154" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="46"/>
       <c r="B154" s="61"/>
     </row>
-    <row r="155" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="46"/>
       <c r="B155" s="61"/>
     </row>
-    <row r="156" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="46"/>
       <c r="B156" s="61"/>
     </row>
-    <row r="157" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="46"/>
       <c r="B157" s="61"/>
     </row>
-    <row r="158" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="46"/>
       <c r="B158" s="61"/>
     </row>
-    <row r="159" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="46"/>
       <c r="B159" s="61"/>
     </row>
-    <row r="160" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="46"/>
       <c r="B160" s="61"/>
     </row>
-    <row r="161" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="46"/>
       <c r="B161" s="61"/>
     </row>
-    <row r="162" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="46"/>
       <c r="B162" s="61"/>
     </row>
-    <row r="163" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="46"/>
       <c r="B163" s="61"/>
     </row>
-    <row r="164" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="46"/>
       <c r="B164" s="61"/>
     </row>
-    <row r="165" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="46"/>
       <c r="B165" s="61"/>
     </row>
-    <row r="166" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="46"/>
       <c r="B166" s="61"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
     </row>
@@ -13634,48 +13601,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.41796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.15625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.15625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="20.41796875" style="7" customWidth="1"/>
-    <col min="7" max="8" width="16.68359375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.68359375" style="7" customWidth="1"/>
-    <col min="10" max="11" width="17.41796875" style="7" customWidth="1"/>
+    <col min="1" max="2" width="19.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="16.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="17.44140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="14" style="7" customWidth="1"/>
-    <col min="13" max="13" width="18.83984375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="20.26171875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" style="7" customWidth="1"/>
     <col min="15" max="15" width="25" style="7" customWidth="1"/>
-    <col min="16" max="16" width="21.15625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="21.109375" style="7" customWidth="1"/>
     <col min="17" max="17" width="17" style="7" customWidth="1"/>
-    <col min="18" max="18" width="15.26171875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="15.41796875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="19.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83984375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" style="7" customWidth="1"/>
     <col min="22" max="22" width="27" style="7" customWidth="1"/>
-    <col min="23" max="23" width="27.26171875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="27.21875" style="7" customWidth="1"/>
     <col min="24" max="24" width="27" style="7" customWidth="1"/>
-    <col min="25" max="25" width="22.68359375" style="7" customWidth="1"/>
-    <col min="26" max="26" width="19.41796875" style="7" customWidth="1"/>
-    <col min="27" max="27" width="22.68359375" style="7" customWidth="1"/>
-    <col min="28" max="28" width="26.26171875" style="7" customWidth="1"/>
-    <col min="29" max="29" width="18.41796875" style="7" customWidth="1"/>
-    <col min="30" max="30" width="19.26171875" style="7" customWidth="1"/>
-    <col min="31" max="31" width="19.83984375" style="7" customWidth="1"/>
-    <col min="32" max="32" width="28.68359375" style="7" customWidth="1"/>
-    <col min="33" max="33" width="27.26171875" style="7" customWidth="1"/>
-    <col min="34" max="34" width="30.15625" style="7" customWidth="1"/>
-    <col min="35" max="35" width="24.83984375" style="7" customWidth="1"/>
-    <col min="36" max="36" width="15.26171875" style="7" customWidth="1"/>
-    <col min="37" max="16384" width="9.15625" style="7"/>
+    <col min="25" max="25" width="22.6640625" style="7" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="22.6640625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="26.21875" style="7" customWidth="1"/>
+    <col min="29" max="29" width="18.44140625" style="7" customWidth="1"/>
+    <col min="30" max="30" width="19.21875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="19.88671875" style="7" customWidth="1"/>
+    <col min="32" max="32" width="28.6640625" style="7" customWidth="1"/>
+    <col min="33" max="33" width="27.21875" style="7" customWidth="1"/>
+    <col min="34" max="34" width="30.109375" style="7" customWidth="1"/>
+    <col min="35" max="35" width="24.88671875" style="7" customWidth="1"/>
+    <col min="36" max="36" width="15.21875" style="7" customWidth="1"/>
+    <col min="37" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="20.100000000000001" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -13699,92 +13666,91 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:36" ht="20.100000000000001" x14ac:dyDescent="0.4">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:36" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="110" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-    </row>
-    <row r="3" spans="1:36" ht="20.100000000000001" x14ac:dyDescent="0.4">
-      <c r="A3" s="126" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+    </row>
+    <row r="3" spans="1:36" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-    </row>
-    <row r="4" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="127" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+    </row>
+    <row r="4" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-    </row>
-    <row r="5" spans="1:36" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="83"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -13795,7 +13761,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>314</v>
       </c>
@@ -13815,7 +13781,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -13837,31 +13803,31 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.5">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-    </row>
-    <row r="9" spans="1:36" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+    </row>
+    <row r="9" spans="1:36" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>317</v>
       </c>
@@ -13881,7 +13847,7 @@
         <v>140</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>318</v>
+        <v>534</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>146</v>
@@ -13904,10 +13870,10 @@
       <c r="N9" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="O9" s="87" t="s">
+      <c r="O9" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="P9" s="87" t="s">
+      <c r="P9" s="83" t="s">
         <v>171</v>
       </c>
       <c r="Q9" s="34" t="s">
@@ -13919,13 +13885,13 @@
       <c r="S9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="T9" s="88" t="s">
+      <c r="T9" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="U9" s="108" t="s">
+      <c r="U9" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="V9" s="88" t="s">
+      <c r="V9" s="84" t="s">
         <v>188</v>
       </c>
       <c r="W9" s="57" t="s">
@@ -13953,13 +13919,13 @@
         <v>207</v>
       </c>
       <c r="AE9" s="58" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF9" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG9" s="58" t="s">
         <v>444</v>
-      </c>
-      <c r="AF9" s="87" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG9" s="58" t="s">
-        <v>445</v>
       </c>
       <c r="AH9" s="68" t="s">
         <v>223</v>
@@ -13971,12 +13937,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="19.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB10" s="36"/>
       <c r="AC10" s="36"/>
       <c r="AF10" s="36"/>
     </row>
-    <row r="11" spans="1:36" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y11" s="36"/>
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
@@ -13984,7 +13950,7 @@
       <c r="AE11" s="36"/>
       <c r="AF11" s="36"/>
     </row>
-    <row r="12" spans="1:36" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y12" s="36"/>
       <c r="Z12" s="36"/>
       <c r="AC12" s="36"/>
@@ -13993,48 +13959,48 @@
       <c r="AF12" s="35"/>
       <c r="AG12"/>
     </row>
-    <row r="13" spans="1:36" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y13" s="36"/>
       <c r="Z13" s="36"/>
       <c r="AE13" s="35"/>
       <c r="AF13" s="35"/>
     </row>
-    <row r="14" spans="1:36" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y14" s="36"/>
       <c r="AE14"/>
       <c r="AF14" s="35"/>
       <c r="AG14"/>
     </row>
-    <row r="15" spans="1:36" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AE15" s="35"/>
       <c r="AF15" s="35"/>
     </row>
-    <row r="16" spans="1:36" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:36" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AE16" s="35"/>
       <c r="AF16" s="35"/>
       <c r="AG16"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A18" s="123" t="s">
-        <v>322</v>
-      </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AG25" s="36"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y26" s="36"/>
       <c r="AG26" s="36"/>
       <c r="AJ26" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -14055,51 +14021,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B586FD1-CC35-4AA4-B08E-AEF1F94DB86E}">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.41796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.15625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.15625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="20.41796875" style="7" customWidth="1"/>
-    <col min="7" max="8" width="16.68359375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.68359375" style="7" customWidth="1"/>
-    <col min="10" max="11" width="17.41796875" style="7" customWidth="1"/>
+    <col min="1" max="2" width="19.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="16.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="17.44140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="14" style="7" customWidth="1"/>
-    <col min="13" max="13" width="18.83984375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="20.26171875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="21.68359375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="7" customWidth="1"/>
     <col min="16" max="16" width="17" style="7" customWidth="1"/>
-    <col min="17" max="17" width="15.26171875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="15.41796875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="19.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.83984375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" style="7" customWidth="1"/>
     <col min="21" max="21" width="27" style="7" customWidth="1"/>
-    <col min="22" max="22" width="27.26171875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="27.21875" style="7" customWidth="1"/>
     <col min="23" max="23" width="27" style="7" customWidth="1"/>
-    <col min="24" max="24" width="22.68359375" style="7" customWidth="1"/>
-    <col min="25" max="25" width="21.41796875" style="7" customWidth="1"/>
-    <col min="26" max="26" width="22.68359375" style="7" customWidth="1"/>
-    <col min="27" max="27" width="26.26171875" style="7" customWidth="1"/>
-    <col min="28" max="28" width="18.41796875" style="7" customWidth="1"/>
-    <col min="29" max="29" width="19.26171875" style="7" customWidth="1"/>
-    <col min="30" max="30" width="19.83984375" style="7" customWidth="1"/>
-    <col min="31" max="31" width="19.41796875" style="7" customWidth="1"/>
-    <col min="32" max="33" width="29.26171875" style="7" customWidth="1"/>
-    <col min="34" max="34" width="31.83984375" style="7" customWidth="1"/>
-    <col min="35" max="35" width="29.26171875" style="7" customWidth="1"/>
-    <col min="36" max="36" width="29.41796875" style="7" customWidth="1"/>
-    <col min="37" max="37" width="26.41796875" style="7" customWidth="1"/>
-    <col min="38" max="38" width="22.83984375" style="7" customWidth="1"/>
-    <col min="39" max="39" width="23.41796875" style="7" customWidth="1"/>
-    <col min="40" max="40" width="21.41796875" style="7" customWidth="1"/>
-    <col min="41" max="16384" width="9.15625" style="7"/>
+    <col min="24" max="24" width="22.6640625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="21.44140625" style="7" customWidth="1"/>
+    <col min="26" max="26" width="22.6640625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="26.21875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="18.44140625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="19.21875" style="7" customWidth="1"/>
+    <col min="30" max="30" width="19.88671875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="19.44140625" style="7" customWidth="1"/>
+    <col min="32" max="33" width="29.21875" style="7" customWidth="1"/>
+    <col min="34" max="34" width="31.88671875" style="7" customWidth="1"/>
+    <col min="35" max="35" width="29.21875" style="7" customWidth="1"/>
+    <col min="36" max="36" width="29.44140625" style="7" customWidth="1"/>
+    <col min="37" max="37" width="26.44140625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="22.88671875" style="7" customWidth="1"/>
+    <col min="39" max="39" width="23.44140625" style="7" customWidth="1"/>
+    <col min="40" max="40" width="21.44140625" style="7" customWidth="1"/>
+    <col min="41" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="20.100000000000001" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14122,89 +14088,88 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:39" ht="20.100000000000001" x14ac:dyDescent="0.4">
-      <c r="A2" s="126" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-    </row>
-    <row r="3" spans="1:39" ht="20.100000000000001" x14ac:dyDescent="0.4">
-      <c r="A3" s="126" t="s">
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="110" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+    </row>
+    <row r="3" spans="1:39" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-    </row>
-    <row r="4" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="127" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+    </row>
+    <row r="4" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-    </row>
-    <row r="5" spans="1:39" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+    </row>
+    <row r="5" spans="1:39" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="83"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -14214,7 +14179,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>314</v>
       </c>
@@ -14234,7 +14199,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -14255,30 +14220,30 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.5">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-    </row>
-    <row r="9" spans="1:39" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+    </row>
+    <row r="9" spans="1:39" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>317</v>
       </c>
@@ -14298,7 +14263,7 @@
         <v>140</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>318</v>
+        <v>534</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>146</v>
@@ -14318,31 +14283,31 @@
       <c r="M9" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="88" t="s">
+      <c r="N9" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="O9" s="87" t="s">
+      <c r="O9" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="P9" s="87" t="s">
+      <c r="P9" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" s="87" t="s">
+      <c r="Q9" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="87" t="s">
+      <c r="R9" s="83" t="s">
         <v>176</v>
       </c>
       <c r="S9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="T9" s="88" t="s">
-        <v>325</v>
-      </c>
-      <c r="U9" s="88" t="s">
+      <c r="T9" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="U9" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="V9" s="88" t="s">
+      <c r="V9" s="84" t="s">
         <v>188</v>
       </c>
       <c r="W9" s="57" t="s">
@@ -14369,23 +14334,23 @@
       <c r="AD9" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="AE9" s="88" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF9" s="87" t="s">
-        <v>422</v>
+      <c r="AE9" s="84" t="s">
+        <v>425</v>
+      </c>
+      <c r="AF9" s="83" t="s">
+        <v>421</v>
       </c>
       <c r="AG9" s="55" t="s">
-        <v>529</v>
-      </c>
-      <c r="AH9" s="88" t="s">
-        <v>446</v>
-      </c>
-      <c r="AI9" s="88" t="s">
+        <v>528</v>
+      </c>
+      <c r="AH9" s="84" t="s">
+        <v>445</v>
+      </c>
+      <c r="AI9" s="84" t="s">
+        <v>449</v>
+      </c>
+      <c r="AJ9" s="84" t="s">
         <v>450</v>
-      </c>
-      <c r="AJ9" s="88" t="s">
-        <v>451</v>
       </c>
       <c r="AK9" s="68" t="s">
         <v>230</v>
@@ -14397,14 +14362,14 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="23.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:39" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:39" ht="23.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:39" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AF11" s="35"/>
       <c r="AG11" s="35"/>
       <c r="AH11" s="35"/>
       <c r="AI11"/>
     </row>
-    <row r="12" spans="1:39" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X12" s="36"/>
       <c r="Y12" s="36"/>
       <c r="AB12" s="36"/>
@@ -14414,213 +14379,168 @@
       <c r="AH12" s="35"/>
       <c r="AI12"/>
     </row>
-    <row r="13" spans="1:39" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
       <c r="AD13"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-    </row>
-    <row r="14" spans="1:39" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13"/>
+    </row>
+    <row r="14" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X14" s="36"/>
       <c r="AD14"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="93"/>
-    </row>
-    <row r="15" spans="1:39" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14"/>
+    </row>
+    <row r="15" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AD15"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="93"/>
-    </row>
-    <row r="16" spans="1:39" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15"/>
+    </row>
+    <row r="16" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AD16"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="93"/>
-    </row>
-    <row r="17" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="93"/>
-    </row>
-    <row r="18" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE18" s="109"/>
-      <c r="AF18" s="109"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="93"/>
-    </row>
-    <row r="19" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="109"/>
-      <c r="AG19" s="109"/>
-      <c r="AH19" s="109"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="93"/>
-    </row>
-    <row r="20" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="123" t="s">
-        <v>322</v>
-      </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16"/>
+    </row>
+    <row r="17" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17"/>
+    </row>
+    <row r="18" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18"/>
+    </row>
+    <row r="19" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19"/>
+    </row>
+    <row r="20" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="93"/>
-    </row>
-    <row r="21" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="AE21" s="109"/>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="109"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="90"/>
-      <c r="AK21" s="93"/>
-    </row>
-    <row r="22" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="AE22" s="109"/>
-      <c r="AF22" s="109"/>
-      <c r="AG22" s="109"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="90"/>
-      <c r="AK22" s="93"/>
-    </row>
-    <row r="23" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="AE23" s="109"/>
-      <c r="AF23" s="109"/>
-      <c r="AG23" s="109"/>
-      <c r="AH23" s="109"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="90"/>
-      <c r="AK23" s="93"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AE24" s="109"/>
-      <c r="AF24" s="109"/>
-      <c r="AG24" s="109"/>
-      <c r="AH24" s="109"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="93"/>
-    </row>
-    <row r="25" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="109"/>
-      <c r="AG25" s="109"/>
-      <c r="AH25" s="109"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="93"/>
-    </row>
-    <row r="26" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="109"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="90"/>
-      <c r="AK26" s="93"/>
-    </row>
-    <row r="27" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="109"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="93"/>
-    </row>
-    <row r="28" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>322</v>
+      </c>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20"/>
+    </row>
+    <row r="21" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21"/>
+    </row>
+    <row r="22" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22"/>
+    </row>
+    <row r="23" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+    </row>
+    <row r="25" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25"/>
+    </row>
+    <row r="26" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26"/>
+    </row>
+    <row r="27" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27"/>
+    </row>
+    <row r="28" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AF28" s="36"/>
       <c r="AG28" s="36"/>
       <c r="AH28" s="36"/>
       <c r="AI28"/>
-      <c r="AJ28" s="90"/>
-    </row>
-    <row r="29" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AF29" s="36"/>
       <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
       <c r="AI29"/>
-      <c r="AJ29" s="90"/>
-    </row>
-    <row r="30" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AF30" s="36"/>
       <c r="AG30" s="36"/>
       <c r="AH30" s="36"/>
       <c r="AI30"/>
-      <c r="AJ30" s="90"/>
-    </row>
-    <row r="31" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AF31" s="36"/>
       <c r="AG31" s="36"/>
       <c r="AH31" s="36"/>
       <c r="AI31"/>
-      <c r="AJ31" s="90"/>
-    </row>
-    <row r="32" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AF32" s="36"/>
       <c r="AG32" s="36"/>
       <c r="AI32"/>
-      <c r="AJ32" s="90"/>
-    </row>
-    <row r="33" spans="31:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="31:34" x14ac:dyDescent="0.25">
       <c r="AF33" s="36"/>
       <c r="AG33" s="36"/>
     </row>
-    <row r="34" spans="31:34" x14ac:dyDescent="0.4">
+    <row r="34" spans="31:34" x14ac:dyDescent="0.25">
       <c r="AE34" s="36"/>
       <c r="AF34" s="36"/>
       <c r="AG34" s="36"/>
     </row>
-    <row r="35" spans="31:34" ht="244" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AH35" s="91"/>
+    <row r="35" spans="31:34" ht="244.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH35" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14645,43 +14565,43 @@
       <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.41796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.15625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.15625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="20.41796875" style="7" customWidth="1"/>
-    <col min="7" max="8" width="16.68359375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.68359375" style="7" customWidth="1"/>
-    <col min="10" max="11" width="17.41796875" style="7" customWidth="1"/>
+    <col min="1" max="2" width="19.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="16.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="17.44140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="14" style="7" customWidth="1"/>
-    <col min="13" max="13" width="18.83984375" style="7" customWidth="1"/>
-    <col min="14" max="15" width="20.26171875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="7" customWidth="1"/>
+    <col min="14" max="15" width="20.21875" style="7" customWidth="1"/>
     <col min="16" max="16" width="17" style="7" customWidth="1"/>
-    <col min="17" max="17" width="15.26171875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="15.41796875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="19.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.83984375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" style="7" customWidth="1"/>
     <col min="21" max="21" width="27" style="7" customWidth="1"/>
-    <col min="22" max="22" width="27.26171875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="27.21875" style="7" customWidth="1"/>
     <col min="23" max="23" width="27" style="7" customWidth="1"/>
-    <col min="24" max="24" width="22.68359375" style="7" customWidth="1"/>
-    <col min="25" max="25" width="21.41796875" style="7" customWidth="1"/>
-    <col min="26" max="26" width="22.68359375" style="7" customWidth="1"/>
-    <col min="27" max="27" width="26.26171875" style="7" customWidth="1"/>
-    <col min="28" max="28" width="18.41796875" style="7" customWidth="1"/>
-    <col min="29" max="29" width="19.26171875" style="7" customWidth="1"/>
-    <col min="30" max="30" width="19.83984375" style="7" customWidth="1"/>
-    <col min="31" max="31" width="19.41796875" style="7" customWidth="1"/>
-    <col min="32" max="32" width="29.41796875" style="7" customWidth="1"/>
-    <col min="33" max="33" width="27.26171875" style="7" customWidth="1"/>
-    <col min="34" max="34" width="19.41796875" style="7" customWidth="1"/>
-    <col min="35" max="35" width="17.41796875" style="7" customWidth="1"/>
+    <col min="24" max="24" width="22.6640625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="21.44140625" style="7" customWidth="1"/>
+    <col min="26" max="26" width="22.6640625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="26.21875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="18.44140625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="19.21875" style="7" customWidth="1"/>
+    <col min="30" max="30" width="19.88671875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="19.44140625" style="7" customWidth="1"/>
+    <col min="32" max="32" width="29.44140625" style="7" customWidth="1"/>
+    <col min="33" max="33" width="27.21875" style="7" customWidth="1"/>
+    <col min="34" max="34" width="19.44140625" style="7" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" style="7" customWidth="1"/>
     <col min="36" max="36" width="14" style="7" customWidth="1"/>
-    <col min="37" max="16384" width="9.15625" style="7"/>
+    <col min="37" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="20.100000000000001" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14704,89 +14624,88 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:37" ht="20.100000000000001" x14ac:dyDescent="0.4">
-      <c r="A2" s="128" t="s">
-        <v>463</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-    </row>
-    <row r="3" spans="1:37" ht="20.100000000000001" x14ac:dyDescent="0.4">
-      <c r="A3" s="126" t="s">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+    </row>
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-    </row>
-    <row r="4" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="127" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+    </row>
+    <row r="4" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-    </row>
-    <row r="5" spans="1:37" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="83"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -14796,7 +14715,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:37" ht="15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>314</v>
       </c>
@@ -14816,7 +14735,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="1:37" ht="15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -14837,30 +14756,30 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:37" ht="15" x14ac:dyDescent="0.5">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-    </row>
-    <row r="9" spans="1:37" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+    </row>
+    <row r="9" spans="1:37" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>317</v>
       </c>
@@ -14903,10 +14822,10 @@
       <c r="N9" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="O9" s="87" t="s">
+      <c r="O9" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="P9" s="87" t="s">
+      <c r="P9" s="83" t="s">
         <v>171</v>
       </c>
       <c r="Q9" s="34" t="s">
@@ -14918,13 +14837,13 @@
       <c r="S9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="T9" s="88" t="s">
-        <v>325</v>
-      </c>
-      <c r="U9" s="88" t="s">
+      <c r="T9" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="U9" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="V9" s="88" t="s">
+      <c r="V9" s="84" t="s">
         <v>188</v>
       </c>
       <c r="W9" s="57" t="s">
@@ -14951,17 +14870,17 @@
       <c r="AD9" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="AE9" s="88" t="s">
+      <c r="AE9" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF9" s="83" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG9" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="AH9" s="84" t="s">
         <v>448</v>
-      </c>
-      <c r="AF9" s="87" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG9" s="55" t="s">
-        <v>530</v>
-      </c>
-      <c r="AH9" s="88" t="s">
-        <v>449</v>
       </c>
       <c r="AI9" s="68" t="s">
         <v>238</v>
@@ -14973,9 +14892,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:37" ht="23.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X12" s="36"/>
       <c r="Y12" s="36"/>
       <c r="AB12" s="36"/>
@@ -14983,44 +14902,44 @@
       <c r="AE12" s="35"/>
       <c r="AF12" s="35"/>
     </row>
-    <row r="13" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
     </row>
-    <row r="14" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="X14" s="36"/>
       <c r="AD14"/>
       <c r="AE14" s="35"/>
       <c r="AF14"/>
     </row>
-    <row r="15" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AD15"/>
       <c r="AE15" s="35"/>
       <c r="AF15"/>
     </row>
-    <row r="16" spans="1:37" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AD16"/>
       <c r="AE16" s="35"/>
       <c r="AF16"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AE17" s="36"/>
       <c r="AF17" s="36"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="123" t="s">
-        <v>322</v>
-      </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -15046,43 +14965,43 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.15625" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" style="107" customWidth="1"/>
-    <col min="4" max="4" width="8.83984375" style="107" customWidth="1"/>
-    <col min="5" max="5" width="15.68359375" customWidth="1"/>
-    <col min="6" max="6" width="8.83984375" customWidth="1"/>
+    <col min="1" max="1" width="62.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="99" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="99" t="s">
         <v>453</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="D2" s="99" t="s">
         <v>454</v>
       </c>
-      <c r="D2" s="112" t="s">
-        <v>455</v>
-      </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>328</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -15091,7 +15010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -15102,7 +15021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -15113,7 +15032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -15126,9 +15045,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -15137,7 +15056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>262</v>
       </c>
@@ -15148,7 +15067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>265</v>
       </c>
@@ -15159,7 +15078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -15172,15 +15091,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="112" t="s">
-        <v>456</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="99" t="s">
+        <v>455</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>23</v>
@@ -15189,7 +15108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>269</v>
       </c>
@@ -15200,7 +15119,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>271</v>
       </c>
@@ -15211,7 +15130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -15224,22 +15143,22 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="76" t="s">
         <v>247</v>
       </c>
@@ -15248,7 +15167,7 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="76" t="s">
         <v>259</v>
       </c>
@@ -15257,9 +15176,9 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="112" t="s">
-        <v>457</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="99" t="s">
+        <v>456</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>23</v>
@@ -15268,18 +15187,18 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>247</v>
       </c>
@@ -15290,7 +15209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -15301,9 +15220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="112" t="s">
-        <v>457</v>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="99" t="s">
+        <v>456</v>
       </c>
       <c r="B26" s="78" t="s">
         <v>23</v>
@@ -15312,12 +15231,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>280</v>
       </c>
@@ -15328,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>283</v>
       </c>
@@ -15339,9 +15258,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="112" t="s">
-        <v>458</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="99" t="s">
+        <v>457</v>
       </c>
       <c r="B31" s="78" t="s">
         <v>23</v>
@@ -15350,7 +15269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="74" t="s">
         <v>286</v>
       </c>
@@ -15360,9 +15279,9 @@
       <c r="E33" s="75"/>
       <c r="F33" s="76"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="112" t="s">
-        <v>459</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="99" t="s">
+        <v>458</v>
       </c>
       <c r="B34" s="78" t="s">
         <v>23</v>
@@ -15376,7 +15295,7 @@
       </c>
       <c r="F34" s="76"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="76"/>
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
@@ -15384,21 +15303,21 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
-        <v>330</v>
-      </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
+        <v>329</v>
+      </c>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="76" t="s">
-        <v>331</v>
-      </c>
-      <c r="B37" s="86" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="82" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="78" t="s">
@@ -15412,8 +15331,8 @@
       </c>
       <c r="F37" s="76"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="112"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="99"/>
     </row>
   </sheetData>
   <phoneticPr fontId="51" type="noConversion"/>
@@ -15430,735 +15349,729 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="16.83984375"/>
-    <col min="4" max="4" width="14.26171875" customWidth="1"/>
+    <col min="2" max="3" width="16.88671875"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="4.41796875" customWidth="1"/>
-    <col min="7" max="7" width="14.68359375" customWidth="1"/>
-    <col min="8" max="8" width="12.83984375" customWidth="1"/>
-    <col min="9" max="9" width="16.83984375"/>
-    <col min="10" max="10" width="15.26171875" customWidth="1"/>
-    <col min="11" max="11" width="17.578125" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="97" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="88" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="135" t="s">
-        <v>443</v>
-      </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-    </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="105" t="s">
-        <v>337</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="88" t="s">
+        <v>433</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>431</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88" t="s">
+        <v>332</v>
+      </c>
+      <c r="H21" s="88" t="s">
+        <v>433</v>
+      </c>
+      <c r="I21" s="88" t="s">
         <v>434</v>
       </c>
-      <c r="D21" s="96" t="s">
-        <v>428</v>
-      </c>
-      <c r="E21" s="97" t="s">
+      <c r="J21" s="89" t="s">
         <v>432</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96" t="s">
-        <v>333</v>
-      </c>
-      <c r="H21" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="I21" s="96" t="s">
+      <c r="K21" s="88" t="s">
         <v>435</v>
       </c>
-      <c r="J21" s="97" t="s">
-        <v>433</v>
-      </c>
-      <c r="K21" s="96" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="98">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="90">
         <v>45539</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="91">
         <f>$A$2+30</f>
         <v>30</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="92">
         <v>45558</v>
       </c>
-      <c r="D22" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E22" s="100">
+      <c r="D22" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" s="92">
         <f>A22+180</f>
         <v>45719</v>
       </c>
-      <c r="F22" s="100"/>
-      <c r="G22" s="99">
+      <c r="F22" s="92"/>
+      <c r="G22" s="91">
         <v>45569</v>
       </c>
-      <c r="H22" s="100">
+      <c r="H22" s="92">
         <v>45558</v>
       </c>
-      <c r="I22" s="101" t="s">
-        <v>437</v>
-      </c>
-      <c r="J22" s="100">
+      <c r="I22" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="J22" s="92">
         <f>A22+90</f>
         <v>45629</v>
       </c>
-      <c r="K22" s="106" t="s">
+      <c r="K22" s="93" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="91">
         <f>$B$2+30</f>
         <v>30</v>
       </c>
-      <c r="C23" s="100">
+      <c r="C23" s="92">
         <v>45594</v>
       </c>
-      <c r="D23" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E23" s="100">
+      <c r="D23" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="92">
         <v>45719</v>
       </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="99">
+      <c r="F23" s="92"/>
+      <c r="G23" s="91">
         <v>45599</v>
       </c>
-      <c r="H23" s="100">
+      <c r="H23" s="92">
         <v>45594</v>
       </c>
-      <c r="I23" s="101" t="s">
-        <v>438</v>
-      </c>
-      <c r="J23" s="100">
+      <c r="I23" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="J23" s="92">
         <f>H23+90</f>
         <v>45684</v>
       </c>
-      <c r="K23" s="106" t="s">
+      <c r="K23" s="93" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="91">
         <f t="shared" ref="B24:B26" si="0">B23+30</f>
         <v>60</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="92">
         <v>45614</v>
       </c>
-      <c r="D24" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="E24" s="100">
+      <c r="D24" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="E24" s="92">
         <v>45719</v>
       </c>
-      <c r="F24" s="100"/>
-      <c r="G24" s="99">
+      <c r="F24" s="92"/>
+      <c r="G24" s="91">
         <v>45629</v>
       </c>
-      <c r="H24" s="100">
+      <c r="H24" s="92">
         <v>45614</v>
       </c>
-      <c r="I24" s="101" t="s">
-        <v>438</v>
-      </c>
-      <c r="J24" s="100">
+      <c r="I24" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="J24" s="92">
         <f>H24+90</f>
         <v>45704</v>
       </c>
-      <c r="K24" s="106" t="s">
+      <c r="K24" s="93" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="101"/>
-      <c r="B25" s="99">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="93"/>
+      <c r="B25" s="91">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C25" s="100">
+      <c r="C25" s="92">
         <v>45655</v>
       </c>
-      <c r="D25" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E25" s="100">
+      <c r="D25" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E25" s="92">
         <v>45719</v>
       </c>
-      <c r="F25" s="100"/>
-      <c r="G25" s="99">
+      <c r="F25" s="92"/>
+      <c r="G25" s="91">
         <v>45659</v>
       </c>
-      <c r="H25" s="100">
+      <c r="H25" s="92">
         <v>45655</v>
       </c>
-      <c r="I25" s="101" t="s">
-        <v>438</v>
-      </c>
-      <c r="J25" s="100">
+      <c r="I25" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="J25" s="92">
         <f>H25+90</f>
         <v>45745</v>
       </c>
-      <c r="K25" s="106" t="s">
+      <c r="K25" s="93" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="101"/>
-      <c r="B26" s="99">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="93"/>
+      <c r="B26" s="91">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C26" s="100">
+      <c r="C26" s="92">
         <v>45668</v>
       </c>
-      <c r="D26" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E26" s="100">
+      <c r="D26" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E26" s="92">
         <v>45719</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="99">
+      <c r="F26" s="92"/>
+      <c r="G26" s="91">
         <v>45689</v>
       </c>
-      <c r="H26" s="100">
+      <c r="H26" s="92">
         <v>45668</v>
       </c>
-      <c r="I26" s="101" t="s">
-        <v>440</v>
-      </c>
-      <c r="J26" s="100">
+      <c r="I26" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="J26" s="92">
         <f>H26+90</f>
         <v>45758</v>
       </c>
-      <c r="K26" s="106" t="s">
+      <c r="K26" s="93" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="101"/>
-      <c r="B27" s="129">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="93"/>
+      <c r="B27" s="121">
         <f>B26+30</f>
         <v>150</v>
       </c>
-      <c r="C27" s="100">
+      <c r="C27" s="92">
         <v>45697</v>
       </c>
-      <c r="D27" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E27" s="100">
+      <c r="D27" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E27" s="92">
         <v>45719</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="130">
+      <c r="F27" s="92"/>
+      <c r="G27" s="117">
         <v>45719</v>
       </c>
-      <c r="H27" s="100">
+      <c r="H27" s="92">
         <v>45697</v>
       </c>
-      <c r="I27" s="101" t="s">
-        <v>440</v>
-      </c>
-      <c r="J27" s="100">
+      <c r="I27" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="J27" s="92">
         <f>H27+90</f>
         <v>45787</v>
       </c>
-      <c r="K27" s="133" t="s">
+      <c r="K27" s="120" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="101"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="100">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="93"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="92">
         <v>45719</v>
       </c>
-      <c r="D28" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="E28" s="100">
+      <c r="D28" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="E28" s="92">
         <f>C28+90</f>
         <v>45809</v>
       </c>
-      <c r="F28" s="100"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="100">
+      <c r="F28" s="92"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="92">
         <v>45719</v>
       </c>
-      <c r="I28" s="101" t="s">
-        <v>437</v>
-      </c>
-      <c r="J28" s="100">
+      <c r="I28" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="J28" s="92">
         <v>45787</v>
       </c>
-      <c r="K28" s="133"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="137"/>
-      <c r="B29" s="134">
+      <c r="K28" s="120"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="115"/>
+      <c r="B29" s="116">
         <v>45752</v>
       </c>
-      <c r="C29" s="100">
+      <c r="C29" s="92">
         <v>45730</v>
       </c>
-      <c r="D29" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="E29" s="100">
+      <c r="D29" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="E29" s="92">
         <f>C29+90</f>
         <v>45820</v>
       </c>
-      <c r="F29" s="100"/>
-      <c r="G29" s="130">
+      <c r="F29" s="92"/>
+      <c r="G29" s="117">
         <v>45752</v>
       </c>
-      <c r="H29" s="100">
+      <c r="H29" s="92">
         <v>45730</v>
       </c>
-      <c r="I29" s="101" t="s">
-        <v>437</v>
-      </c>
-      <c r="J29" s="100">
+      <c r="I29" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="J29" s="92">
         <v>45787</v>
       </c>
-      <c r="K29" s="133" t="s">
+      <c r="K29" s="120" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="137"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="100">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="92">
         <v>45736</v>
       </c>
-      <c r="D30" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="E30" s="100">
+      <c r="D30" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="E30" s="92">
         <f>C30+90</f>
         <v>45826</v>
       </c>
-      <c r="F30" s="100"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="100">
+      <c r="F30" s="92"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="92">
         <v>45736</v>
       </c>
-      <c r="I30" s="101" t="s">
-        <v>440</v>
-      </c>
-      <c r="J30" s="100">
+      <c r="I30" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="J30" s="92">
         <f>H30+90</f>
         <v>45826</v>
       </c>
-      <c r="K30" s="133"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="137"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="100">
+      <c r="K30" s="120"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="92">
         <v>45748</v>
       </c>
-      <c r="D31" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E31" s="100">
+      <c r="D31" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E31" s="92">
         <v>45826</v>
       </c>
-      <c r="F31" s="100"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="100">
+      <c r="F31" s="92"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="92">
         <v>45748</v>
       </c>
-      <c r="I31" s="101" t="s">
-        <v>440</v>
-      </c>
-      <c r="J31" s="100">
+      <c r="I31" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="J31" s="92">
         <f>H31+90</f>
         <v>45838</v>
       </c>
-      <c r="K31" s="133"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="101"/>
-      <c r="B32" s="102">
+      <c r="K31" s="120"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="93"/>
+      <c r="B32" s="94">
         <v>45782</v>
       </c>
-      <c r="C32" s="100">
+      <c r="C32" s="92">
         <v>45778</v>
       </c>
-      <c r="D32" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E32" s="100">
+      <c r="D32" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E32" s="92">
         <v>45826</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="99">
+      <c r="F32" s="92"/>
+      <c r="G32" s="91">
         <v>45782</v>
       </c>
-      <c r="H32" s="100">
+      <c r="H32" s="92">
         <v>45778</v>
       </c>
-      <c r="I32" s="103" t="s">
-        <v>437</v>
-      </c>
-      <c r="J32" s="100">
+      <c r="I32" s="95" t="s">
+        <v>436</v>
+      </c>
+      <c r="J32" s="92">
         <v>45838</v>
       </c>
-      <c r="K32" s="106" t="s">
+      <c r="K32" s="93" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="101"/>
-      <c r="B33" s="102">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="93"/>
+      <c r="B33" s="94">
         <v>45812</v>
       </c>
-      <c r="C33" s="100">
+      <c r="C33" s="92">
         <v>45809</v>
       </c>
-      <c r="D33" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E33" s="100">
+      <c r="D33" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E33" s="92">
         <v>45826</v>
       </c>
-      <c r="F33" s="100"/>
-      <c r="G33" s="99">
+      <c r="F33" s="92"/>
+      <c r="G33" s="91">
         <v>45812</v>
       </c>
-      <c r="H33" s="100">
+      <c r="H33" s="92">
         <v>45809</v>
       </c>
-      <c r="I33" s="101" t="s">
-        <v>437</v>
-      </c>
-      <c r="J33" s="100">
+      <c r="I33" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="J33" s="92">
         <v>45838</v>
       </c>
-      <c r="K33" s="106" t="s">
+      <c r="K33" s="93" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="137"/>
-      <c r="B34" s="134">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="115"/>
+      <c r="B34" s="116">
         <v>45842</v>
       </c>
-      <c r="C34" s="100">
+      <c r="C34" s="92">
         <v>45821</v>
       </c>
-      <c r="D34" s="104" t="s">
-        <v>439</v>
-      </c>
-      <c r="E34" s="100">
+      <c r="D34" s="96" t="s">
+        <v>438</v>
+      </c>
+      <c r="E34" s="92">
         <f>C34+90</f>
         <v>45911</v>
       </c>
-      <c r="F34" s="100"/>
-      <c r="G34" s="130">
+      <c r="F34" s="92"/>
+      <c r="G34" s="117">
         <v>45842</v>
       </c>
-      <c r="H34" s="100">
+      <c r="H34" s="92">
         <v>45821</v>
       </c>
-      <c r="I34" s="101" t="s">
-        <v>440</v>
-      </c>
-      <c r="J34" s="100">
+      <c r="I34" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="J34" s="92">
         <f>H34+90</f>
         <v>45911</v>
       </c>
-      <c r="K34" s="133" t="s">
+      <c r="K34" s="120" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="137"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="100">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="92">
         <v>45828</v>
       </c>
-      <c r="D35" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E35" s="100">
+      <c r="D35" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E35" s="92">
         <v>45911</v>
       </c>
-      <c r="F35" s="100"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="100">
+      <c r="F35" s="92"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="92">
         <v>45828</v>
       </c>
-      <c r="I35" s="101" t="s">
-        <v>440</v>
-      </c>
-      <c r="J35" s="100">
+      <c r="I35" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="J35" s="92">
         <f>H35+90</f>
         <v>45918</v>
       </c>
-      <c r="K35" s="133"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="137"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="100">
+      <c r="K35" s="120"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="92">
         <v>45839</v>
       </c>
-      <c r="D36" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E36" s="100">
+      <c r="D36" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E36" s="92">
         <v>45911</v>
       </c>
-      <c r="F36" s="100"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="100">
+      <c r="F36" s="92"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="92">
         <v>45839</v>
       </c>
-      <c r="I36" s="101" t="s">
-        <v>440</v>
-      </c>
-      <c r="J36" s="100">
+      <c r="I36" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="J36" s="92">
         <f>H36+90</f>
         <v>45929</v>
       </c>
-      <c r="K36" s="133"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="101"/>
-      <c r="B37" s="129">
+      <c r="K36" s="120"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="93"/>
+      <c r="B37" s="121">
         <v>45872</v>
       </c>
-      <c r="C37" s="100">
+      <c r="C37" s="92">
         <v>45848</v>
       </c>
-      <c r="D37" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E37" s="100">
+      <c r="D37" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E37" s="92">
         <v>45911</v>
       </c>
-      <c r="F37" s="100"/>
-      <c r="G37" s="130">
+      <c r="F37" s="92"/>
+      <c r="G37" s="117">
         <v>45872</v>
       </c>
-      <c r="H37" s="100">
+      <c r="H37" s="92">
         <v>45848</v>
       </c>
-      <c r="I37" s="101" t="s">
-        <v>441</v>
-      </c>
-      <c r="J37" s="100">
+      <c r="I37" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="J37" s="92">
         <v>45929</v>
       </c>
-      <c r="K37" s="133" t="s">
+      <c r="K37" s="120" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="101"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="100">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="93"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="92">
         <v>45850</v>
       </c>
-      <c r="D38" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="E38" s="100">
+      <c r="D38" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="E38" s="92">
         <f>C38+90</f>
         <v>45940</v>
       </c>
-      <c r="F38" s="100"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="100">
+      <c r="F38" s="92"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="92">
         <v>45850</v>
       </c>
-      <c r="I38" s="101" t="s">
-        <v>442</v>
-      </c>
-      <c r="J38" s="100">
+      <c r="I38" s="93" t="s">
+        <v>441</v>
+      </c>
+      <c r="J38" s="92">
         <f>H38+90</f>
         <v>45940</v>
       </c>
-      <c r="K38" s="133"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="101"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="100">
+      <c r="K38" s="120"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="93"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="92">
         <v>45870</v>
       </c>
-      <c r="D39" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="E39" s="100">
+      <c r="D39" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="E39" s="92">
         <f>C39+90</f>
         <v>45960</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="100">
+      <c r="F39" s="92"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="92">
         <v>45870</v>
       </c>
-      <c r="I39" s="101" t="s">
-        <v>442</v>
-      </c>
-      <c r="J39" s="100">
+      <c r="I39" s="93" t="s">
+        <v>441</v>
+      </c>
+      <c r="J39" s="92">
         <f>H39+90</f>
         <v>45960</v>
       </c>
-      <c r="K39" s="133"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="101"/>
-      <c r="B40" s="99">
+      <c r="K39" s="120"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="93"/>
+      <c r="B40" s="91">
         <f>B37+30</f>
         <v>45902</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="99">
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="91">
         <v>45902</v>
       </c>
-      <c r="H40" s="100"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="106" t="s">
+      <c r="H40" s="92"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="93" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="101"/>
-      <c r="B41" s="99">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="93"/>
+      <c r="B41" s="91">
         <f>B40+30</f>
         <v>45932</v>
       </c>
-      <c r="C41" s="100">
+      <c r="C41" s="92">
         <v>45923</v>
       </c>
-      <c r="D41" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E41" s="100">
+      <c r="D41" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E41" s="92">
         <v>45960</v>
       </c>
-      <c r="F41" s="100"/>
-      <c r="G41" s="99">
+      <c r="F41" s="92"/>
+      <c r="G41" s="91">
         <v>45932</v>
       </c>
-      <c r="H41" s="100">
+      <c r="H41" s="92">
         <v>45923</v>
       </c>
-      <c r="I41" s="101" t="s">
-        <v>441</v>
-      </c>
-      <c r="J41" s="100">
+      <c r="I41" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="J41" s="92">
         <v>45960</v>
       </c>
-      <c r="K41" s="106" t="s">
+      <c r="K41" s="93" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="101"/>
-      <c r="B42" s="99">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="93"/>
+      <c r="B42" s="91">
         <f>B41+30</f>
         <v>45962</v>
       </c>
-      <c r="C42" s="100">
+      <c r="C42" s="92">
         <v>45961</v>
       </c>
-      <c r="D42" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E42" s="100">
+      <c r="D42" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="E42" s="92">
         <v>45960</v>
       </c>
-      <c r="F42" s="100"/>
-      <c r="G42" s="99">
+      <c r="F42" s="92"/>
+      <c r="G42" s="91">
         <v>45962</v>
       </c>
-      <c r="H42" s="100">
+      <c r="H42" s="92">
         <v>45961</v>
       </c>
-      <c r="I42" s="101" t="s">
-        <v>441</v>
-      </c>
-      <c r="J42" s="100">
+      <c r="I42" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="J42" s="92">
         <v>45960</v>
       </c>
-      <c r="K42" s="106" t="s">
+      <c r="K42" s="93" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="101"/>
-      <c r="B43" s="99">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="93"/>
+      <c r="B43" s="91">
         <f>B42+30</f>
         <v>45992</v>
       </c>
-      <c r="C43" s="100">
+      <c r="C43" s="92">
         <v>45986</v>
       </c>
-      <c r="D43" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="E43" s="100">
+      <c r="D43" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="E43" s="92">
         <f>C43+90</f>
         <v>46076</v>
       </c>
-      <c r="F43" s="100"/>
-      <c r="G43" s="99">
+      <c r="F43" s="92"/>
+      <c r="G43" s="91">
         <v>45992</v>
       </c>
-      <c r="H43" s="100">
+      <c r="H43" s="92">
         <v>45986</v>
       </c>
-      <c r="I43" s="101" t="s">
-        <v>441</v>
-      </c>
-      <c r="J43" s="100">
+      <c r="I43" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="J43" s="92">
         <v>45960</v>
       </c>
-      <c r="K43" s="106" t="s">
+      <c r="K43" s="93" t="s">
         <v>309</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A29:A31"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="G37:G39"/>
     <mergeCell ref="K37:K39"/>
@@ -16168,6 +16081,12 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="K29:K31"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16183,64 +16102,64 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.68359375" customWidth="1"/>
-    <col min="5" max="5" width="37.83984375" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="3.41796875" customWidth="1"/>
-    <col min="9" max="9" width="3.26171875" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.21875" customWidth="1"/>
     <col min="18" max="18" width="3" customWidth="1"/>
-    <col min="19" max="19" width="12.68359375" customWidth="1"/>
-    <col min="20" max="20" width="18.15625" customWidth="1"/>
-    <col min="21" max="21" width="17.41796875" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="49"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
+        <v>332</v>
+      </c>
+      <c r="T2" t="s">
         <v>333</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>334</v>
       </c>
-      <c r="U2" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>336</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>337</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>338</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>339</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>340</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>341</v>
       </c>
-      <c r="U3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>343</v>
       </c>
       <c r="H6" s="35">
         <v>43838</v>
@@ -16261,18 +16180,18 @@
       </c>
       <c r="Q6" s="73"/>
       <c r="S6" t="s">
+        <v>319</v>
+      </c>
+      <c r="T6" t="s">
         <v>320</v>
       </c>
-      <c r="T6" t="s">
-        <v>321</v>
-      </c>
       <c r="U6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J7" s="35">
         <v>43831</v>
@@ -16291,39 +16210,39 @@
       <c r="Q7" s="71"/>
       <c r="R7" s="71"/>
       <c r="S7" t="s">
+        <v>344</v>
+      </c>
+      <c r="T7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>345</v>
       </c>
-      <c r="T7" t="s">
-        <v>320</v>
-      </c>
-      <c r="U7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="69" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="69" t="s">
-        <v>347</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
       <c r="E9" s="69"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" s="69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
       <c r="E10" s="69"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="69"/>
@@ -16344,41 +16263,41 @@
         <v>44226</v>
       </c>
       <c r="S11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
+      <c r="T17" t="s">
         <v>352</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>353</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>354</v>
       </c>
-      <c r="V17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
-        <v>356</v>
       </c>
       <c r="H19" s="35">
         <v>43838</v>
@@ -16396,7 +16315,7 @@
         <v>43840</v>
       </c>
       <c r="S19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T19" s="35">
         <v>43832</v>
@@ -16405,12 +16324,12 @@
         <v>43836</v>
       </c>
       <c r="V19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J20" s="35">
         <v>43831</v>
@@ -16425,7 +16344,7 @@
         <v>43840</v>
       </c>
       <c r="S20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T20" s="35">
         <v>43832</v>
@@ -16434,27 +16353,27 @@
         <v>43836</v>
       </c>
       <c r="V20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H24" s="35">
         <v>43838</v>
@@ -16472,7 +16391,7 @@
         <v>43840</v>
       </c>
       <c r="S24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T24" s="35">
         <v>43833</v>
@@ -16481,12 +16400,12 @@
         <v>43834</v>
       </c>
       <c r="V24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J25" s="35">
         <v>43831</v>
@@ -16501,7 +16420,7 @@
         <v>43840</v>
       </c>
       <c r="S25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T25" s="35">
         <v>43833</v>
@@ -16510,15 +16429,15 @@
         <v>43834</v>
       </c>
       <c r="V25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="S31" s="35">
         <v>43831</v>
       </c>
@@ -16529,19 +16448,19 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.3">
       <c r="U34" s="35">
         <v>43832</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.3">
       <c r="F38" s="35"/>
       <c r="H38" s="35"/>
     </row>
@@ -16552,6 +16471,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">TBD</_Version>
+    <_Status xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">In Progress</_Status>
+    <Cognos_x0020_Folder xmlns="b2e6f427-1d92-426a-81dd-5bfdc06cb888">Compliance</Cognos_x0020_Folder>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086E20A62806F114A848EA95E0E8305C3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e04953c2773df2dac0d67675948c499">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="b2e6f427-1d92-426a-81dd-5bfdc06cb888" xmlns:ns4="a019a4d6-0e6a-42ec-b1ad-b632e12e3941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a63bb970c74629832447aa365306b958" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -16776,26 +16714,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9930A5E-CC1C-4667-9396-004F3505A51C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b2e6f427-1d92-426a-81dd-5bfdc06cb888"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="a019a4d6-0e6a-42ec-b1ad-b632e12e3941"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">TBD</_Version>
-    <_Status xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">In Progress</_Status>
-    <Cognos_x0020_Folder xmlns="b2e6f427-1d92-426a-81dd-5bfdc06cb888">Compliance</Cognos_x0020_Folder>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2585EC0-9B64-474A-9758-88F670B1E603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF8FD84-41A9-4149-B2DF-C752EAAFF893}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16815,32 +16760,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2585EC0-9B64-474A-9758-88F670B1E603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9930A5E-CC1C-4667-9396-004F3505A51C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b2e6f427-1d92-426a-81dd-5bfdc06cb888"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="a019a4d6-0e6a-42ec-b1ad-b632e12e3941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{034a106e-6316-442c-ad35-738afd673d2b}" enabled="1" method="Standard" siteId="{cddc1229-ac2a-4b97-b78a-0e5cacb5865c}" removed="0"/>

--- a/CQ091 - Design Spec - QIP9.KS2 - Seven Day Visit 2025.xlsx
+++ b/CQ091 - Design Spec - QIP9.KS2 - Seven Day Visit 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\college_work\Coop_1\ops_work\report2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90EA936-709E-4793-B8FC-CD1949BC4257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDC5E0D-C69B-448F-B846-69D817B99E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -5628,12 +5628,7 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5648,8 +5643,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1777">
@@ -8608,8 +8608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8647,7 +8647,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="104">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="101.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -8874,7 +8874,7 @@
   <dimension ref="A1:Y168"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
@@ -13602,7 +13602,7 @@
   <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14021,8 +14021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B586FD1-CC35-4AA4-B08E-AEF1F94DB86E}">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15369,12 +15369,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="97" t="s">
@@ -15579,7 +15579,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="93"/>
-      <c r="B27" s="121">
+      <c r="B27" s="113">
         <f>B26+30</f>
         <v>150</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>45719</v>
       </c>
       <c r="F27" s="92"/>
-      <c r="G27" s="117">
+      <c r="G27" s="114">
         <v>45719</v>
       </c>
       <c r="H27" s="92">
@@ -15606,13 +15606,13 @@
         <f>H27+90</f>
         <v>45787</v>
       </c>
-      <c r="K27" s="120" t="s">
+      <c r="K27" s="117" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="93"/>
-      <c r="B28" s="121"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="92">
         <v>45719</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>45809</v>
       </c>
       <c r="F28" s="92"/>
-      <c r="G28" s="119"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="92">
         <v>45719</v>
       </c>
@@ -15634,11 +15634,11 @@
       <c r="J28" s="92">
         <v>45787</v>
       </c>
-      <c r="K28" s="120"/>
+      <c r="K28" s="117"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
-      <c r="B29" s="116">
+      <c r="A29" s="121"/>
+      <c r="B29" s="118">
         <v>45752</v>
       </c>
       <c r="C29" s="92">
@@ -15652,7 +15652,7 @@
         <v>45820</v>
       </c>
       <c r="F29" s="92"/>
-      <c r="G29" s="117">
+      <c r="G29" s="114">
         <v>45752</v>
       </c>
       <c r="H29" s="92">
@@ -15664,13 +15664,13 @@
       <c r="J29" s="92">
         <v>45787</v>
       </c>
-      <c r="K29" s="120" t="s">
+      <c r="K29" s="117" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
-      <c r="B30" s="116"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="92">
         <v>45736</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>45826</v>
       </c>
       <c r="F30" s="92"/>
-      <c r="G30" s="118"/>
+      <c r="G30" s="115"/>
       <c r="H30" s="92">
         <v>45736</v>
       </c>
@@ -15693,11 +15693,11 @@
         <f>H30+90</f>
         <v>45826</v>
       </c>
-      <c r="K30" s="120"/>
+      <c r="K30" s="117"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
-      <c r="B31" s="116"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="92">
         <v>45748</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>45826</v>
       </c>
       <c r="F31" s="92"/>
-      <c r="G31" s="119"/>
+      <c r="G31" s="116"/>
       <c r="H31" s="92">
         <v>45748</v>
       </c>
@@ -15719,7 +15719,7 @@
         <f>H31+90</f>
         <v>45838</v>
       </c>
-      <c r="K31" s="120"/>
+      <c r="K31" s="117"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="93"/>
@@ -15784,8 +15784,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116">
+      <c r="A34" s="121"/>
+      <c r="B34" s="118">
         <v>45842</v>
       </c>
       <c r="C34" s="92">
@@ -15799,7 +15799,7 @@
         <v>45911</v>
       </c>
       <c r="F34" s="92"/>
-      <c r="G34" s="117">
+      <c r="G34" s="114">
         <v>45842</v>
       </c>
       <c r="H34" s="92">
@@ -15812,13 +15812,13 @@
         <f>H34+90</f>
         <v>45911</v>
       </c>
-      <c r="K34" s="120" t="s">
+      <c r="K34" s="117" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="92">
         <v>45828</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>45911</v>
       </c>
       <c r="F35" s="92"/>
-      <c r="G35" s="118"/>
+      <c r="G35" s="115"/>
       <c r="H35" s="92">
         <v>45828</v>
       </c>
@@ -15840,11 +15840,11 @@
         <f>H35+90</f>
         <v>45918</v>
       </c>
-      <c r="K35" s="120"/>
+      <c r="K35" s="117"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="118"/>
       <c r="C36" s="92">
         <v>45839</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>45911</v>
       </c>
       <c r="F36" s="92"/>
-      <c r="G36" s="119"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="92">
         <v>45839</v>
       </c>
@@ -15866,11 +15866,11 @@
         <f>H36+90</f>
         <v>45929</v>
       </c>
-      <c r="K36" s="120"/>
+      <c r="K36" s="117"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="93"/>
-      <c r="B37" s="121">
+      <c r="B37" s="113">
         <v>45872</v>
       </c>
       <c r="C37" s="92">
@@ -15883,7 +15883,7 @@
         <v>45911</v>
       </c>
       <c r="F37" s="92"/>
-      <c r="G37" s="117">
+      <c r="G37" s="114">
         <v>45872</v>
       </c>
       <c r="H37" s="92">
@@ -15895,13 +15895,13 @@
       <c r="J37" s="92">
         <v>45929</v>
       </c>
-      <c r="K37" s="120" t="s">
+      <c r="K37" s="117" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="93"/>
-      <c r="B38" s="121"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="92">
         <v>45850</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>45940</v>
       </c>
       <c r="F38" s="92"/>
-      <c r="G38" s="118"/>
+      <c r="G38" s="115"/>
       <c r="H38" s="92">
         <v>45850</v>
       </c>
@@ -15924,11 +15924,11 @@
         <f>H38+90</f>
         <v>45940</v>
       </c>
-      <c r="K38" s="120"/>
+      <c r="K38" s="117"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="93"/>
-      <c r="B39" s="121"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="92">
         <v>45870</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>45960</v>
       </c>
       <c r="F39" s="92"/>
-      <c r="G39" s="119"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="92">
         <v>45870</v>
       </c>
@@ -15951,7 +15951,7 @@
         <f>H39+90</f>
         <v>45960</v>
       </c>
-      <c r="K39" s="120"/>
+      <c r="K39" s="117"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="93"/>
@@ -16072,6 +16072,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="G37:G39"/>
     <mergeCell ref="K37:K39"/>
@@ -16081,12 +16087,6 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="K29:K31"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16471,25 +16471,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">TBD</_Version>
-    <_Status xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">In Progress</_Status>
-    <Cognos_x0020_Folder xmlns="b2e6f427-1d92-426a-81dd-5bfdc06cb888">Compliance</Cognos_x0020_Folder>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086E20A62806F114A848EA95E0E8305C3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e04953c2773df2dac0d67675948c499">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="b2e6f427-1d92-426a-81dd-5bfdc06cb888" xmlns:ns4="a019a4d6-0e6a-42ec-b1ad-b632e12e3941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a63bb970c74629832447aa365306b958" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -16714,33 +16695,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9930A5E-CC1C-4667-9396-004F3505A51C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b2e6f427-1d92-426a-81dd-5bfdc06cb888"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="a019a4d6-0e6a-42ec-b1ad-b632e12e3941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2585EC0-9B64-474A-9758-88F670B1E603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">TBD</_Version>
+    <_Status xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">In Progress</_Status>
+    <Cognos_x0020_Folder xmlns="b2e6f427-1d92-426a-81dd-5bfdc06cb888">Compliance</Cognos_x0020_Folder>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF8FD84-41A9-4149-B2DF-C752EAAFF893}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16760,6 +16734,32 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2585EC0-9B64-474A-9758-88F670B1E603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9930A5E-CC1C-4667-9396-004F3505A51C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b2e6f427-1d92-426a-81dd-5bfdc06cb888"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="a019a4d6-0e6a-42ec-b1ad-b632e12e3941"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{034a106e-6316-442c-ad35-738afd673d2b}" enabled="1" method="Standard" siteId="{cddc1229-ac2a-4b97-b78a-0e5cacb5865c}" removed="0"/>
